--- a/no_falla_frecuencia.xlsx
+++ b/no_falla_frecuencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos GitHub\PYTHON-PANDAS-ALGORITM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A38F8-0CDB-4C9E-B771-4512BD35EAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9D64C-5712-41A9-9754-38D2224BFE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="0" windowWidth="18525" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1965" yWindow="0" windowWidth="18525" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Format</t>
   </si>
@@ -151,17 +151,26 @@
     <t>V1,30</t>
   </si>
   <si>
-    <t>FRECUENCIA</t>
+    <t>TIEMPO</t>
   </si>
   <si>
-    <t>TIEMPO</t>
+    <t>WaveformData</t>
+  </si>
+  <si>
+    <t>WaveformData1</t>
+  </si>
+  <si>
+    <t>NF_FRECUENCIA</t>
+  </si>
+  <si>
+    <t>F_FRECUENCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +182,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,11 +244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26261,8 +26288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219B0560-04A8-4259-A511-CC4517601452}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26271,17 +26298,24 @@
     <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
